--- a/Assets/StreamingAssets/Story.xlsx
+++ b/Assets/StreamingAssets/Story.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>HyperLink</t>
   </si>
@@ -65,6 +65,9 @@
     <t>說話後</t>
   </si>
   <si>
+    <t>顯示名稱</t>
+  </si>
+  <si>
     <t>左</t>
   </si>
   <si>
@@ -86,13 +89,16 @@
     <t>遲到了~遲到了!</t>
   </si>
   <si>
+    <t>？？？</t>
+  </si>
+  <si>
     <t>0.5,0 - 0.7,0</t>
   </si>
   <si>
     <t>喜</t>
   </si>
   <si>
-    <t>你好，{Name}！</t>
+    <t>你好，{{Name}}！</t>
   </si>
   <si>
     <t>蛋糕
@@ -116,10 +122,10 @@
 表情,張沐霖,怒</t>
   </si>
   <si>
-    <t>我愛蛋糕</t>
+    <t>{{Name}}</t>
   </si>
   <si>
-    <t>結束</t>
+    <t>我愛蛋糕</t>
   </si>
   <si>
     <t>麵包最棒</t>
@@ -129,6 +135,12 @@
   </si>
   <si>
     <t>栗子香甜</t>
+  </si>
+  <si>
+    <t>吃飽啦！謝謝招待~</t>
+  </si>
+  <si>
+    <t>結束</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -204,6 +216,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29473,34 +29494,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -29522,26 +29545,26 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
-        <f t="shared" ref="A2:A8" si="1">ROW()-2</f>
+      <c r="A2" s="10">
+        <f t="shared" ref="A2:A9" si="1">ROW()-2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -29564,27 +29587,29 @@
       <c r="AC2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -29606,37 +29631,37 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="7" t="str">
+      <c r="E4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10" t="str">
         <f>TEXTJOIN(CHAR(10), TRUE, A5, A6, A7, A8)</f>
         <v>3
 4
 5
 6</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>27</v>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>28</v>
+      <c r="I4" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -29660,22 +29685,25 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7" t="s">
-        <v>30</v>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
       </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -29698,22 +29726,25 @@
       <c r="AC5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7" t="s">
-        <v>30</v>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>33</v>
       </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -29736,22 +29767,25 @@
       <c r="AC6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>34</v>
       </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -29774,22 +29808,24 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7" t="s">
-        <v>30</v>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
       </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -29812,15 +29848,24 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>

--- a/Assets/StreamingAssets/Story.xlsx
+++ b/Assets/StreamingAssets/Story.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>HyperLink</t>
   </si>
@@ -101,10 +101,10 @@
     <t>你好，{{Name}}！</t>
   </si>
   <si>
-    <t>蛋糕
-麵包
-卡布奇諾
-栗子蒙布朗</t>
+    <t>蛋糕 ({{蛋糕價格}}元)
+麵包 ({{麵包價格}}元)
+卡布奇諾 ({{卡布奇諾價格}}元)
+栗子蒙布朗 ({{栗子蒙布朗價格}}元)</t>
   </si>
   <si>
     <t>背景=街道
@@ -113,7 +113,7 @@
 震動,5,2</t>
   </si>
   <si>
-    <t>金錢,100
+    <t>金錢+100-50*2
 等級=10
 HP=MaxHP*50
 姓名="柴可夫斯基"
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>結束</t>
+  </si>
+  <si>
+    <t>怒</t>
+  </si>
+  <si>
+    <t>您的餘額不足喔！</t>
   </si>
 </sst>
 </file>
@@ -29489,7 +29495,8 @@
     <col customWidth="1" min="3" max="3" width="7.88"/>
     <col customWidth="1" min="4" max="4" width="4.63"/>
     <col customWidth="1" min="5" max="5" width="28.88"/>
-    <col customWidth="1" min="7" max="7" width="4.75"/>
+    <col customWidth="1" min="6" max="6" width="26.75"/>
+    <col customWidth="1" min="7" max="7" width="22.0"/>
     <col customWidth="1" min="9" max="9" width="15.13"/>
   </cols>
   <sheetData>
@@ -29546,7 +29553,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f t="shared" ref="A2:A9" si="1">ROW()-2</f>
+        <f t="shared" ref="A2:A10" si="1">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -29651,11 +29658,11 @@
         <v>28</v>
       </c>
       <c r="G4" s="10" t="str">
-        <f>TEXTJOIN(CHAR(10), TRUE, A5, A6, A7, A8)</f>
-        <v>3
-4
-5
-6</v>
+        <f>TEXTJOIN(CHAR(10), TRUE, "金錢&gt;=蛋糕價格?" &amp; A5 &amp; ":" &amp; A10, "金錢&gt;=麵包價格?" &amp; A6 &amp; ":" &amp; A10, "金錢&gt;=卡布奇諾價格?" &amp; A7 &amp; ":" &amp; A10, "金錢&gt;=栗子蒙布朗價格?" &amp; A8 &amp; ":" &amp; A10)</f>
+        <v>金錢&gt;=蛋糕價格?3:8
+金錢&gt;=麵包價格?4:8
+金錢&gt;=卡布奇諾價格?5:8
+金錢&gt;=栗子蒙布朗價格?6:8</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>29</v>
@@ -29888,15 +29895,26 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -60577,99 +60595,6 @@
       <c r="AB999" s="8"/>
       <c r="AC999" s="8"/>
     </row>
-    <row r="1000">
-      <c r="A1000" s="8"/>
-      <c r="B1000" s="8"/>
-      <c r="C1000" s="8"/>
-      <c r="D1000" s="8"/>
-      <c r="E1000" s="8"/>
-      <c r="F1000" s="8"/>
-      <c r="G1000" s="8"/>
-      <c r="H1000" s="8"/>
-      <c r="I1000" s="8"/>
-      <c r="J1000" s="8"/>
-      <c r="K1000" s="8"/>
-      <c r="L1000" s="8"/>
-      <c r="M1000" s="8"/>
-      <c r="N1000" s="8"/>
-      <c r="O1000" s="8"/>
-      <c r="P1000" s="8"/>
-      <c r="Q1000" s="8"/>
-      <c r="R1000" s="8"/>
-      <c r="S1000" s="8"/>
-      <c r="T1000" s="8"/>
-      <c r="U1000" s="8"/>
-      <c r="V1000" s="8"/>
-      <c r="W1000" s="8"/>
-      <c r="X1000" s="8"/>
-      <c r="Y1000" s="8"/>
-      <c r="Z1000" s="8"/>
-      <c r="AA1000" s="8"/>
-      <c r="AB1000" s="8"/>
-      <c r="AC1000" s="8"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="8"/>
-      <c r="B1001" s="8"/>
-      <c r="C1001" s="8"/>
-      <c r="D1001" s="8"/>
-      <c r="E1001" s="8"/>
-      <c r="F1001" s="8"/>
-      <c r="G1001" s="8"/>
-      <c r="H1001" s="8"/>
-      <c r="I1001" s="8"/>
-      <c r="J1001" s="8"/>
-      <c r="K1001" s="8"/>
-      <c r="L1001" s="8"/>
-      <c r="M1001" s="8"/>
-      <c r="N1001" s="8"/>
-      <c r="O1001" s="8"/>
-      <c r="P1001" s="8"/>
-      <c r="Q1001" s="8"/>
-      <c r="R1001" s="8"/>
-      <c r="S1001" s="8"/>
-      <c r="T1001" s="8"/>
-      <c r="U1001" s="8"/>
-      <c r="V1001" s="8"/>
-      <c r="W1001" s="8"/>
-      <c r="X1001" s="8"/>
-      <c r="Y1001" s="8"/>
-      <c r="Z1001" s="8"/>
-      <c r="AA1001" s="8"/>
-      <c r="AB1001" s="8"/>
-      <c r="AC1001" s="8"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="8"/>
-      <c r="B1002" s="8"/>
-      <c r="C1002" s="8"/>
-      <c r="D1002" s="8"/>
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="8"/>
-      <c r="H1002" s="8"/>
-      <c r="I1002" s="8"/>
-      <c r="J1002" s="8"/>
-      <c r="K1002" s="8"/>
-      <c r="L1002" s="8"/>
-      <c r="M1002" s="8"/>
-      <c r="N1002" s="8"/>
-      <c r="O1002" s="8"/>
-      <c r="P1002" s="8"/>
-      <c r="Q1002" s="8"/>
-      <c r="R1002" s="8"/>
-      <c r="S1002" s="8"/>
-      <c r="T1002" s="8"/>
-      <c r="U1002" s="8"/>
-      <c r="V1002" s="8"/>
-      <c r="W1002" s="8"/>
-      <c r="X1002" s="8"/>
-      <c r="Y1002" s="8"/>
-      <c r="Z1002" s="8"/>
-      <c r="AA1002" s="8"/>
-      <c r="AB1002" s="8"/>
-      <c r="AC1002" s="8"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/StreamingAssets/Story.xlsx
+++ b/Assets/StreamingAssets/Story.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>HyperLink</t>
   </si>
@@ -128,25 +128,52 @@
     <t>我愛蛋糕</t>
   </si>
   <si>
+    <t>金錢-蛋糕價格</t>
+  </si>
+  <si>
     <t>麵包最棒</t>
+  </si>
+  <si>
+    <t>金錢-麵包價格</t>
   </si>
   <si>
     <t>卡布好喝</t>
   </si>
   <si>
+    <t>金錢-卡布奇諾價格</t>
+  </si>
+  <si>
     <t>栗子香甜</t>
   </si>
   <si>
-    <t>吃飽啦！謝謝招待~</t>
+    <t>金錢-栗子蒙布朗價格</t>
   </si>
   <si>
-    <t>結束</t>
+    <t>吃飽啦！謝謝招待~ 這裡是小費{{隨機值}}元！</t>
+  </si>
+  <si>
+    <t>金錢&gt;=20?隨機值=10~20:隨機值=0</t>
+  </si>
+  <si>
+    <t>金錢-隨機值</t>
+  </si>
+  <si>
+    <t>哀</t>
+  </si>
+  <si>
+    <t>您的餘額不足喔！</t>
+  </si>
+  <si>
+    <t>隨機值</t>
+  </si>
+  <si>
+    <t>不然我請你吃吧？</t>
   </si>
   <si>
     <t>怒</t>
   </si>
   <si>
-    <t>您的餘額不足喔！</t>
+    <t>下次多帶點錢來吧？</t>
   </si>
 </sst>
 </file>
@@ -29494,9 +29521,10 @@
     <col customWidth="1" min="2" max="2" width="10.25"/>
     <col customWidth="1" min="3" max="3" width="7.88"/>
     <col customWidth="1" min="4" max="4" width="4.63"/>
-    <col customWidth="1" min="5" max="5" width="28.88"/>
+    <col customWidth="1" min="5" max="5" width="34.88"/>
     <col customWidth="1" min="6" max="6" width="26.75"/>
     <col customWidth="1" min="7" max="7" width="22.0"/>
+    <col customWidth="1" min="8" max="8" width="27.88"/>
     <col customWidth="1" min="9" max="9" width="15.13"/>
   </cols>
   <sheetData>
@@ -29553,7 +29581,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f t="shared" ref="A2:A10" si="1">ROW()-2</f>
+        <f t="shared" ref="A2:A12" si="1">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -29709,7 +29737,9 @@
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -29743,14 +29773,16 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -29784,14 +29816,16 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="10">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -29825,14 +29859,16 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -29865,13 +29901,15 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="I9" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -29904,17 +29942,20 @@
         <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10" t="s">
-        <v>37</v>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
       </c>
+      <c r="H10" s="7" t="str">
+        <f>"隨機值=" &amp; A11 &amp; "&amp;" &amp;A12</f>
+        <v>隨機值=9&amp;10</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -29937,11 +29978,20 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -29968,11 +30018,20 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
